--- a/四书系统BUG及需求不符及系统优化-20181211.xlsx
+++ b/四书系统BUG及需求不符及系统优化-20181211.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>序号</t>
   </si>
@@ -167,10 +167,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,19 +182,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,21 +210,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -239,9 +217,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,9 +233,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,21 +257,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,36 +309,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,6 +332,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -351,175 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,6 +550,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -572,28 +580,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,9 +615,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,148 +628,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -787,7 +780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1111,8 +1104,8 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81666666666667" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -1289,6 +1282,9 @@
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1390,12 +1386,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" ht="25.5" spans="1:2">
+    <row r="21" ht="25.5" spans="1:4">
       <c r="A21" s="1">
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="38.25" spans="1:3">

--- a/四书系统BUG及需求不符及系统优化-20181211.xlsx
+++ b/四书系统BUG及需求不符及系统优化-20181211.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>序号</t>
   </si>
@@ -1104,8 +1104,8 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81666666666667" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -1303,12 +1303,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" ht="25.5" spans="1:2">
+    <row r="14" ht="25.5" spans="1:4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" ht="38.25" spans="1:5">
@@ -1363,6 +1366,7 @@
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1466,12 +1470,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" ht="25.5" spans="1:2">
+    <row r="28" ht="25.5" spans="1:4">
       <c r="A28" s="1">
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" ht="25.5" spans="1:4">
